--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
@@ -496,28 +496,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.28626778766309</v>
+        <v>0.902893265181635</v>
       </c>
       <c r="B2" t="n">
-        <v>7.54506156490199</v>
+        <v>3.6646298534885</v>
       </c>
       <c r="C2" t="n">
-        <v>39.1294518716682</v>
+        <v>21.6869859678002</v>
       </c>
       <c r="D2" t="n">
-        <v>59.7839596744252</v>
+        <v>35.0895174041421</v>
       </c>
       <c r="E2" t="n">
-        <v>26.3411735148207</v>
+        <v>15.8602959649895</v>
       </c>
       <c r="F2" t="n">
-        <v>19.709988135678</v>
+        <v>12.0214453640569</v>
       </c>
       <c r="G2" t="n">
-        <v>16.8616443049938</v>
+        <v>10.3589472965638</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2731462522279</v>
+        <v>9.42479006265013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.97612408103708</v>
+        <v>1.65882507916317</v>
       </c>
       <c r="B3" t="n">
-        <v>9.7124909013856</v>
+        <v>6.01918180809794</v>
       </c>
       <c r="C3" t="n">
-        <v>50.1147995085231</v>
+        <v>33.547376955347</v>
       </c>
       <c r="D3" t="n">
-        <v>76.1633151914507</v>
+        <v>52.7718620921299</v>
       </c>
       <c r="E3" t="n">
-        <v>33.4155847623514</v>
+        <v>23.5039161112804</v>
       </c>
       <c r="F3" t="n">
-        <v>24.9296547770623</v>
+        <v>17.6649269318892</v>
       </c>
       <c r="G3" t="n">
-        <v>21.2834530991568</v>
+        <v>15.1421135760385</v>
       </c>
       <c r="H3" t="n">
-        <v>19.250219372832</v>
+        <v>13.7283850186924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.40370251354849</v>
+        <v>3.28688843060447</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0654209574967</v>
+        <v>10.9218429869087</v>
       </c>
       <c r="C4" t="n">
-        <v>72.4058421643944</v>
+        <v>58.4017477463071</v>
       </c>
       <c r="D4" t="n">
-        <v>109.744154932896</v>
+        <v>90.0728880892486</v>
       </c>
       <c r="E4" t="n">
-        <v>48.0189670125356</v>
+        <v>39.7029544270917</v>
       </c>
       <c r="F4" t="n">
-        <v>35.7537214478302</v>
+        <v>29.664599218064</v>
       </c>
       <c r="G4" t="n">
-        <v>30.4823788443817</v>
+        <v>25.3371494946499</v>
       </c>
       <c r="H4" t="n">
-        <v>27.5435530563181</v>
+        <v>22.9183110479924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.82159368271937</v>
+        <v>0.571010406522909</v>
       </c>
       <c r="B5" t="n">
-        <v>8.82708076297399</v>
+        <v>2.31075517025188</v>
       </c>
       <c r="C5" t="n">
-        <v>46.4266183200277</v>
+        <v>17.5030938971764</v>
       </c>
       <c r="D5" t="n">
-        <v>71.288403920064</v>
+        <v>30.7351127286208</v>
       </c>
       <c r="E5" t="n">
-        <v>31.4175749900122</v>
+        <v>14.2825370493716</v>
       </c>
       <c r="F5" t="n">
-        <v>23.4880411532849</v>
+        <v>10.9438726945825</v>
       </c>
       <c r="G5" t="n">
-        <v>20.074594324047</v>
+        <v>9.47579767698435</v>
       </c>
       <c r="H5" t="n">
-        <v>18.1688041485278</v>
+        <v>8.64151887557057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.5641464001574</v>
+        <v>1.4905075065374</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9182591450035</v>
+        <v>4.94304999772839</v>
       </c>
       <c r="C6" t="n">
-        <v>57.1970108322122</v>
+        <v>30.7044392686084</v>
       </c>
       <c r="D6" t="n">
-        <v>87.4924374066619</v>
+        <v>50.420627716729</v>
       </c>
       <c r="E6" t="n">
-        <v>38.4474355095703</v>
+        <v>22.7980687454685</v>
       </c>
       <c r="F6" t="n">
-        <v>28.6936753053592</v>
+        <v>17.240868290124</v>
       </c>
       <c r="G6" t="n">
-        <v>24.4986444995467</v>
+        <v>14.8230083859223</v>
       </c>
       <c r="H6" t="n">
-        <v>22.1586753291095</v>
+        <v>13.4615459695054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.02927968502202</v>
+        <v>3.36197649205888</v>
       </c>
       <c r="B7" t="n">
-        <v>14.8543685636726</v>
+        <v>10.0668081836661</v>
       </c>
       <c r="C7" t="n">
-        <v>78.0600740367288</v>
+        <v>56.9331505185782</v>
       </c>
       <c r="D7" t="n">
-        <v>119.615134494918</v>
+        <v>90.1378510479917</v>
       </c>
       <c r="E7" t="n">
-        <v>52.5754734518452</v>
+        <v>40.144069663721</v>
       </c>
       <c r="F7" t="n">
-        <v>39.2367903551641</v>
+        <v>30.1415007077893</v>
       </c>
       <c r="G7" t="n">
-        <v>33.4980810512766</v>
+        <v>25.8147338992504</v>
       </c>
       <c r="H7" t="n">
-        <v>30.295807235673</v>
+        <v>23.389639249697</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.30735223427129</v>
+        <v>-1.96537434544321</v>
       </c>
       <c r="B8" t="n">
-        <v>5.02362554324253</v>
+        <v>-4.24587260936944</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1217401231822</v>
+        <v>-16.3823324646479</v>
       </c>
       <c r="D8" t="n">
-        <v>37.8716496916281</v>
+        <v>-20.5829586259547</v>
       </c>
       <c r="E8" t="n">
-        <v>16.676827834057</v>
+        <v>-8.09919164566629</v>
       </c>
       <c r="F8" t="n">
-        <v>12.5087354547468</v>
+        <v>-5.66509142261866</v>
       </c>
       <c r="G8" t="n">
-        <v>10.7291399460058</v>
+        <v>-4.64433473894351</v>
       </c>
       <c r="H8" t="n">
-        <v>9.73976831387996</v>
+        <v>-4.08919397058838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.70897672380184</v>
+        <v>-1.44781019951717</v>
       </c>
       <c r="B9" t="n">
-        <v>6.66852794036349</v>
+        <v>-2.13543197931869</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1127210152329</v>
+        <v>-6.51612835981858</v>
       </c>
       <c r="D9" t="n">
-        <v>49.4710170607334</v>
+        <v>-6.44853728678157</v>
       </c>
       <c r="E9" t="n">
-        <v>21.6129798565402</v>
+        <v>-2.09046530171282</v>
       </c>
       <c r="F9" t="n">
-        <v>16.1097440651655</v>
+        <v>-1.27314956096825</v>
       </c>
       <c r="G9" t="n">
-        <v>13.7512737971488</v>
+        <v>-0.950026101991879</v>
       </c>
       <c r="H9" t="n">
-        <v>12.437134836204</v>
+        <v>-0.785297889052752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.55861492943943</v>
+        <v>-0.197137968745834</v>
       </c>
       <c r="B10" t="n">
-        <v>10.1803206030383</v>
+        <v>2.61182456179564</v>
       </c>
       <c r="C10" t="n">
-        <v>49.7961223946798</v>
+        <v>15.6236516364355</v>
       </c>
       <c r="D10" t="n">
-        <v>73.3381929567359</v>
+        <v>25.0837502130258</v>
       </c>
       <c r="E10" t="n">
-        <v>31.6996585477445</v>
+        <v>11.2542584072253</v>
       </c>
       <c r="F10" t="n">
-        <v>23.4542849603632</v>
+        <v>8.46625228730326</v>
       </c>
       <c r="G10" t="n">
-        <v>19.9203799909591</v>
+        <v>7.24672367483543</v>
       </c>
       <c r="H10" t="n">
-        <v>17.9548550727301</v>
+        <v>6.55669111739326</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.01858428971909</v>
+        <v>1.98194016483316</v>
       </c>
       <c r="B2" t="n">
-        <v>16.5621576085296</v>
+        <v>8.04422557567134</v>
       </c>
       <c r="C2" t="n">
-        <v>85.8930233317932</v>
+        <v>47.6050826839534</v>
       </c>
       <c r="D2" t="n">
-        <v>131.231714158011</v>
+        <v>77.0249669476611</v>
       </c>
       <c r="E2" t="n">
-        <v>57.8214854303517</v>
+        <v>34.8149208897136</v>
       </c>
       <c r="F2" t="n">
-        <v>43.2653765853783</v>
+        <v>26.3882635137151</v>
       </c>
       <c r="G2" t="n">
-        <v>37.0129796975223</v>
+        <v>22.7389155553392</v>
       </c>
       <c r="H2" t="n">
-        <v>33.5260691025002</v>
+        <v>20.6883478818828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.2253472694644</v>
+        <v>6.25675780507599</v>
       </c>
       <c r="B3" t="n">
-        <v>36.6335812119685</v>
+        <v>22.7031549203409</v>
       </c>
       <c r="C3" t="n">
-        <v>189.023042220311</v>
+        <v>126.534024136579</v>
       </c>
       <c r="D3" t="n">
-        <v>287.272855209647</v>
+        <v>199.044953069973</v>
       </c>
       <c r="E3" t="n">
-        <v>126.036930234074</v>
+        <v>88.6520902211655</v>
       </c>
       <c r="F3" t="n">
-        <v>94.0296924995379</v>
+        <v>66.6285860067609</v>
       </c>
       <c r="G3" t="n">
-        <v>80.2769459961966</v>
+        <v>57.1130365053441</v>
       </c>
       <c r="H3" t="n">
-        <v>72.6079933462018</v>
+        <v>51.7807339638991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.3683737482438</v>
+        <v>-16.6955757475305</v>
       </c>
       <c r="B4" t="n">
-        <v>-71.4445610110356</v>
+        <v>-55.4769231570891</v>
       </c>
       <c r="C4" t="n">
-        <v>-367.781641495227</v>
+        <v>-296.648585393975</v>
       </c>
       <c r="D4" t="n">
-        <v>-557.43962419617</v>
+        <v>-457.520465827412</v>
       </c>
       <c r="E4" t="n">
-        <v>-243.909800409173</v>
+        <v>-201.669054801583</v>
       </c>
       <c r="F4" t="n">
-        <v>-181.609134989282</v>
+        <v>-150.679761032911</v>
       </c>
       <c r="G4" t="n">
-        <v>-154.833629344609</v>
+        <v>-128.698709294686</v>
       </c>
       <c r="H4" t="n">
-        <v>-139.906019360479</v>
+        <v>-116.412347478692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.82737927794094</v>
+        <v>0.976924431330845</v>
       </c>
       <c r="B5" t="n">
-        <v>15.101985456256</v>
+        <v>3.95340111993661</v>
       </c>
       <c r="C5" t="n">
-        <v>79.4298968684165</v>
+        <v>29.9455138762753</v>
       </c>
       <c r="D5" t="n">
-        <v>121.965173777088</v>
+        <v>52.5837746235412</v>
       </c>
       <c r="E5" t="n">
-        <v>53.7513786619236</v>
+        <v>24.4355605879125</v>
       </c>
       <c r="F5" t="n">
-        <v>40.1849790907931</v>
+        <v>18.7235407386278</v>
       </c>
       <c r="G5" t="n">
-        <v>34.3450161681602</v>
+        <v>16.2118556006084</v>
       </c>
       <c r="H5" t="n">
-        <v>31.0844574074324</v>
+        <v>14.784513236385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-18.6391641108844</v>
+        <v>-7.79480158885415</v>
       </c>
       <c r="B6" t="n">
-        <v>-57.0984469100084</v>
+        <v>-25.8503186378364</v>
       </c>
       <c r="C6" t="n">
-        <v>-299.119158378723</v>
+        <v>-160.572832371589</v>
       </c>
       <c r="D6" t="n">
-        <v>-457.553006019067</v>
+        <v>-263.681187322837</v>
       </c>
       <c r="E6" t="n">
-        <v>-201.065831659967</v>
+        <v>-119.225446165524</v>
       </c>
       <c r="F6" t="n">
-        <v>-150.057282421789</v>
+        <v>-90.163348357288</v>
       </c>
       <c r="G6" t="n">
-        <v>-128.118826797098</v>
+        <v>-77.5188375847919</v>
       </c>
       <c r="H6" t="n">
-        <v>-115.881655680821</v>
+        <v>-70.3988939682012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-16.3514673709722</v>
+        <v>-10.9306406393733</v>
       </c>
       <c r="B7" t="n">
-        <v>-48.2953301659983</v>
+        <v>-32.7297537329803</v>
       </c>
       <c r="C7" t="n">
-        <v>-253.793153995502</v>
+        <v>-185.104152350816</v>
       </c>
       <c r="D7" t="n">
-        <v>-388.899224394504</v>
+        <v>-293.061078844004</v>
       </c>
       <c r="E7" t="n">
-        <v>-170.936235903034</v>
+        <v>-130.518580463774</v>
       </c>
       <c r="F7" t="n">
-        <v>-127.568784680014</v>
+        <v>-97.9976847983537</v>
       </c>
       <c r="G7" t="n">
-        <v>-108.910781186299</v>
+        <v>-83.9302654614792</v>
       </c>
       <c r="H7" t="n">
-        <v>-98.499374565843</v>
+        <v>-76.0456659726522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.19266612887016</v>
+        <v>-1.79296393956678</v>
       </c>
       <c r="B8" t="n">
-        <v>4.58293325432068</v>
+        <v>-3.87340788193559</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9179617839553</v>
+        <v>-14.9452095084125</v>
       </c>
       <c r="D8" t="n">
-        <v>34.5493988900532</v>
+        <v>-18.7773401395496</v>
       </c>
       <c r="E8" t="n">
-        <v>15.2138705800013</v>
+        <v>-7.38869854182687</v>
       </c>
       <c r="F8" t="n">
-        <v>11.4114197389118</v>
+        <v>-5.16812721131443</v>
       </c>
       <c r="G8" t="n">
-        <v>9.7879373821865</v>
+        <v>-4.23691533855102</v>
       </c>
       <c r="H8" t="n">
-        <v>8.88535734019863</v>
+        <v>-3.73047371263284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.57845651778321</v>
+        <v>-2.18441573455327</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0612893624427</v>
+        <v>-3.22188033849161</v>
       </c>
       <c r="C9" t="n">
-        <v>49.9595518968367</v>
+        <v>-9.83135311679901</v>
       </c>
       <c r="D9" t="n">
-        <v>74.6404936972114</v>
+        <v>-9.72937358694999</v>
       </c>
       <c r="E9" t="n">
-        <v>32.6090624896509</v>
+        <v>-3.15403586680215</v>
       </c>
       <c r="F9" t="n">
-        <v>24.3059334899763</v>
+        <v>-1.9208926241479</v>
       </c>
       <c r="G9" t="n">
-        <v>20.7475391889486</v>
+        <v>-1.43337294219881</v>
       </c>
       <c r="H9" t="n">
-        <v>18.7648028989054</v>
+        <v>-1.18483559912092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.3119088595669</v>
+        <v>-1.02566534827483</v>
       </c>
       <c r="B10" t="n">
-        <v>52.9659615714461</v>
+        <v>13.5887468347647</v>
       </c>
       <c r="C10" t="n">
-        <v>259.078236138896</v>
+        <v>81.286411739737</v>
       </c>
       <c r="D10" t="n">
-        <v>381.562434164053</v>
+        <v>130.505217041432</v>
       </c>
       <c r="E10" t="n">
-        <v>164.926328151856</v>
+        <v>58.5534229771028</v>
       </c>
       <c r="F10" t="n">
-        <v>122.027468911498</v>
+        <v>44.0480423739935</v>
       </c>
       <c r="G10" t="n">
-        <v>103.641341194583</v>
+        <v>37.7031041208729</v>
       </c>
       <c r="H10" t="n">
-        <v>93.4151487841432</v>
+        <v>34.1130169963455</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.02822540197228</v>
+        <v>2.77558797611611</v>
       </c>
       <c r="B2" t="n">
-        <v>23.1943054247778</v>
+        <v>11.2654540137838</v>
       </c>
       <c r="C2" t="n">
-        <v>120.288012232728</v>
+        <v>66.6680545881753</v>
       </c>
       <c r="D2" t="n">
-        <v>183.782121360229</v>
+        <v>107.868832729704</v>
       </c>
       <c r="E2" t="n">
-        <v>80.9755120610148</v>
+        <v>48.7562023947667</v>
       </c>
       <c r="F2" t="n">
-        <v>60.5905572545983</v>
+        <v>36.9551756500262</v>
       </c>
       <c r="G2" t="n">
-        <v>51.8344515296307</v>
+        <v>31.8444833629132</v>
       </c>
       <c r="H2" t="n">
-        <v>46.9512429983832</v>
+        <v>28.9727866892969</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.80374509630717</v>
+        <v>3.79225552788608</v>
       </c>
       <c r="B3" t="n">
-        <v>22.2038162871902</v>
+        <v>13.7605078267963</v>
       </c>
       <c r="C3" t="n">
-        <v>114.567911862638</v>
+        <v>76.6929722145098</v>
       </c>
       <c r="D3" t="n">
-        <v>174.117667188041</v>
+        <v>120.642247485599</v>
       </c>
       <c r="E3" t="n">
-        <v>76.3916808494962</v>
+        <v>53.7325224459103</v>
       </c>
       <c r="F3" t="n">
-        <v>56.9919169441895</v>
+        <v>40.3839546728792</v>
       </c>
       <c r="G3" t="n">
-        <v>48.6563011866801</v>
+        <v>34.6165274650774</v>
       </c>
       <c r="H3" t="n">
-        <v>44.0081065488046</v>
+        <v>31.3845893880193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.61733023280765</v>
+        <v>4.93912250357217</v>
       </c>
       <c r="B4" t="n">
-        <v>21.1357454443963</v>
+        <v>16.4119718743243</v>
       </c>
       <c r="C4" t="n">
-        <v>108.802392285182</v>
+        <v>87.7588006504628</v>
       </c>
       <c r="D4" t="n">
-        <v>164.909712242619</v>
+        <v>135.350206712532</v>
       </c>
       <c r="E4" t="n">
-        <v>72.1568637260642</v>
+        <v>59.6606060136594</v>
       </c>
       <c r="F4" t="n">
-        <v>53.7261954330933</v>
+        <v>44.5762284454675</v>
       </c>
       <c r="G4" t="n">
-        <v>45.8050848063041</v>
+        <v>38.0734813144792</v>
       </c>
       <c r="H4" t="n">
-        <v>41.3889870620818</v>
+        <v>34.4387551421051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.36557706035424</v>
+        <v>1.49058355824473</v>
       </c>
       <c r="B5" t="n">
-        <v>23.0424897730117</v>
+        <v>6.0320681104229</v>
       </c>
       <c r="C5" t="n">
-        <v>121.193507407575</v>
+        <v>45.6906278475996</v>
       </c>
       <c r="D5" t="n">
-        <v>186.09349595539</v>
+        <v>80.231906758152</v>
       </c>
       <c r="E5" t="n">
-        <v>82.0134277502948</v>
+        <v>37.2835847694142</v>
       </c>
       <c r="F5" t="n">
-        <v>61.3139227560776</v>
+        <v>28.5682301333217</v>
       </c>
       <c r="G5" t="n">
-        <v>52.4033535922204</v>
+        <v>24.7359208470044</v>
       </c>
       <c r="H5" t="n">
-        <v>47.428418864863</v>
+        <v>22.5580931749099</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.20124747179283</v>
+        <v>3.01152427764097</v>
       </c>
       <c r="B6" t="n">
-        <v>22.0600046229479</v>
+        <v>9.98727950611545</v>
       </c>
       <c r="C6" t="n">
-        <v>115.564789827765</v>
+        <v>62.0373690727514</v>
       </c>
       <c r="D6" t="n">
-        <v>176.775761413137</v>
+        <v>101.873317508862</v>
       </c>
       <c r="E6" t="n">
-        <v>77.6818532897482</v>
+        <v>46.0627921759369</v>
       </c>
       <c r="F6" t="n">
-        <v>57.9746827290925</v>
+        <v>34.8346406815068</v>
       </c>
       <c r="G6" t="n">
-        <v>49.4987528449788</v>
+        <v>29.9494295909879</v>
       </c>
       <c r="H6" t="n">
-        <v>44.7709175708892</v>
+        <v>27.1986369232877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.10060927336486</v>
+        <v>4.74662038133268</v>
       </c>
       <c r="B7" t="n">
-        <v>20.9722015435558</v>
+        <v>14.2128646682754</v>
       </c>
       <c r="C7" t="n">
-        <v>110.209437593113</v>
+        <v>80.38130345744</v>
       </c>
       <c r="D7" t="n">
-        <v>168.87912115106</v>
+        <v>127.261496897591</v>
       </c>
       <c r="E7" t="n">
-        <v>74.2288991116399</v>
+        <v>56.6775703832375</v>
       </c>
       <c r="F7" t="n">
-        <v>55.3966243481507</v>
+        <v>42.5554021336805</v>
       </c>
       <c r="G7" t="n">
-        <v>47.2944039403886</v>
+        <v>36.4466385634429</v>
       </c>
       <c r="H7" t="n">
-        <v>42.773260441719</v>
+        <v>33.0227586768879</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.32980464277008</v>
+        <v>-8.01242468290359</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4802822391906</v>
+        <v>-17.3095444003591</v>
       </c>
       <c r="C8" t="n">
-        <v>102.416138231968</v>
+        <v>-66.7873808913877</v>
       </c>
       <c r="D8" t="n">
-        <v>154.394882315944</v>
+        <v>-83.9124648818962</v>
       </c>
       <c r="E8" t="n">
-        <v>67.9879775982317</v>
+        <v>-33.0187290801687</v>
       </c>
       <c r="F8" t="n">
-        <v>50.995527107546</v>
+        <v>-23.0954059468295</v>
       </c>
       <c r="G8" t="n">
-        <v>43.7404843148687</v>
+        <v>-18.9339920836231</v>
       </c>
       <c r="H8" t="n">
-        <v>39.7070208150578</v>
+        <v>-16.670797997892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.03795728886977</v>
+        <v>-4.26805458843877</v>
       </c>
       <c r="B9" t="n">
-        <v>19.6584063874479</v>
+        <v>-6.29512090788524</v>
       </c>
       <c r="C9" t="n">
-        <v>97.6142459224896</v>
+        <v>-19.2091418849339</v>
       </c>
       <c r="D9" t="n">
-        <v>145.837487145215</v>
+        <v>-19.0098875976597</v>
       </c>
       <c r="E9" t="n">
-        <v>63.7137228880581</v>
+        <v>-6.16256193382455</v>
       </c>
       <c r="F9" t="n">
-        <v>47.4905254147496</v>
+        <v>-3.75316586889048</v>
       </c>
       <c r="G9" t="n">
-        <v>40.5379014779504</v>
+        <v>-2.8006179712612</v>
       </c>
       <c r="H9" t="n">
-        <v>36.663901402542</v>
+        <v>-2.31500942580777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.5332307047131</v>
+        <v>-0.349279558522384</v>
       </c>
       <c r="B10" t="n">
-        <v>18.0370017428249</v>
+        <v>4.62750496865499</v>
       </c>
       <c r="C10" t="n">
-        <v>88.2263713925374</v>
+        <v>27.6812335076727</v>
       </c>
       <c r="D10" t="n">
-        <v>129.937078188037</v>
+        <v>44.4421805511607</v>
       </c>
       <c r="E10" t="n">
-        <v>56.1639283051633</v>
+        <v>19.9397530216033</v>
       </c>
       <c r="F10" t="n">
-        <v>41.5551724943243</v>
+        <v>15.0000980534649</v>
       </c>
       <c r="G10" t="n">
-        <v>35.293969868437</v>
+        <v>12.8393959924766</v>
       </c>
       <c r="H10" t="n">
-        <v>31.8115474813579</v>
+        <v>11.6168295403477</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-7.69552807148597</v>
+        <v>-3.03911926033085</v>
       </c>
       <c r="B2" t="n">
-        <v>-25.3965145234113</v>
+        <v>-12.335065061627</v>
       </c>
       <c r="C2" t="n">
-        <v>-131.708891200393</v>
+        <v>-72.9979271027207</v>
       </c>
       <c r="D2" t="n">
-        <v>-201.231519064258</v>
+        <v>-118.110558901101</v>
       </c>
       <c r="E2" t="n">
-        <v>-88.6638220216473</v>
+        <v>-53.3854142018109</v>
       </c>
       <c r="F2" t="n">
-        <v>-66.343395032392</v>
+        <v>-40.4639258612373</v>
       </c>
       <c r="G2" t="n">
-        <v>-56.7559311208791</v>
+        <v>-34.8679932166799</v>
       </c>
       <c r="H2" t="n">
-        <v>-51.4090809301341</v>
+        <v>-31.7236401117829</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-8.42248938283604</v>
+        <v>-4.69450743208439</v>
       </c>
       <c r="B3" t="n">
-        <v>-27.4865392941903</v>
+        <v>-17.0344022936028</v>
       </c>
       <c r="C3" t="n">
-        <v>-141.825863200034</v>
+        <v>-94.9397332015633</v>
       </c>
       <c r="D3" t="n">
-        <v>-215.543672271235</v>
+        <v>-149.3454023021</v>
       </c>
       <c r="E3" t="n">
-        <v>-94.566758716622</v>
+        <v>-66.5165424935324</v>
       </c>
       <c r="F3" t="n">
-        <v>-70.5514108149707</v>
+        <v>-49.9920888649795</v>
       </c>
       <c r="G3" t="n">
-        <v>-60.2325887216606</v>
+        <v>-42.8524777043033</v>
       </c>
       <c r="H3" t="n">
-        <v>-54.478497492095</v>
+        <v>-38.8515982247385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.96723569895261</v>
+        <v>-3.70750510524763</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.8653453283736</v>
+        <v>-12.3194898420176</v>
       </c>
       <c r="C4" t="n">
-        <v>-81.6714759694104</v>
+        <v>-65.875305017578</v>
       </c>
       <c r="D4" t="n">
-        <v>-123.787899490697</v>
+        <v>-101.599339157938</v>
       </c>
       <c r="E4" t="n">
-        <v>-54.1638601694042</v>
+        <v>-44.783663741451</v>
       </c>
       <c r="F4" t="n">
-        <v>-40.3290551529473</v>
+        <v>-33.460719877818</v>
       </c>
       <c r="G4" t="n">
-        <v>-34.3831491611821</v>
+        <v>-28.5794948892017</v>
       </c>
       <c r="H4" t="n">
-        <v>-31.068247593113</v>
+        <v>-25.8511224241519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-6.1115976946472</v>
+        <v>-1.23681375723865</v>
       </c>
       <c r="B5" t="n">
-        <v>-19.119537576177</v>
+        <v>-5.00511680965869</v>
       </c>
       <c r="C5" t="n">
-        <v>-100.560479431427</v>
+        <v>-37.9118612882916</v>
       </c>
       <c r="D5" t="n">
-        <v>-154.411334176592</v>
+        <v>-66.5725349639731</v>
       </c>
       <c r="E5" t="n">
-        <v>-68.050754457073</v>
+        <v>-30.9361057331707</v>
       </c>
       <c r="F5" t="n">
-        <v>-50.8753117230707</v>
+        <v>-23.7045282388998</v>
       </c>
       <c r="G5" t="n">
-        <v>-43.4817547059365</v>
+        <v>-20.5246643385545</v>
       </c>
       <c r="H5" t="n">
-        <v>-39.3537957745999</v>
+        <v>-18.7176088327811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-6.79976372937668</v>
+        <v>-2.84362586252604</v>
       </c>
       <c r="B6" t="n">
-        <v>-20.8301158781949</v>
+        <v>-9.43046898566362</v>
       </c>
       <c r="C6" t="n">
-        <v>-109.121824981282</v>
+        <v>-58.5786634522959</v>
       </c>
       <c r="D6" t="n">
-        <v>-166.920164235203</v>
+        <v>-96.1936792342417</v>
       </c>
       <c r="E6" t="n">
-        <v>-73.3509368341266</v>
+        <v>-43.4947007082612</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.7424798810948</v>
+        <v>-32.8925407937701</v>
       </c>
       <c r="G6" t="n">
-        <v>-46.7390997966734</v>
+        <v>-28.2796898517944</v>
       </c>
       <c r="H6" t="n">
-        <v>-42.2748506591252</v>
+        <v>-25.6822592979731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.07905155497164</v>
+        <v>-2.72676730994944</v>
       </c>
       <c r="B7" t="n">
-        <v>-12.0477959037001</v>
+        <v>-8.16479339923697</v>
       </c>
       <c r="C7" t="n">
-        <v>-63.3114653235527</v>
+        <v>-46.1762460425233</v>
       </c>
       <c r="D7" t="n">
-        <v>-97.0151454914564</v>
+        <v>-73.1072766889683</v>
       </c>
       <c r="E7" t="n">
-        <v>-42.6419050377749</v>
+        <v>-32.5592808593173</v>
       </c>
       <c r="F7" t="n">
-        <v>-31.8234221864771</v>
+        <v>-24.4465893788821</v>
       </c>
       <c r="G7" t="n">
-        <v>-27.1689800843075</v>
+        <v>-20.9373184725668</v>
       </c>
       <c r="H7" t="n">
-        <v>-24.5717413533051</v>
+        <v>-18.9704192900309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-16.0829470690049</v>
+        <v>24.1778846893255</v>
       </c>
       <c r="B8" t="n">
-        <v>-61.8002567238547</v>
+        <v>52.2323996916477</v>
       </c>
       <c r="C8" t="n">
-        <v>-309.045723173175</v>
+        <v>201.534199421499</v>
       </c>
       <c r="D8" t="n">
-        <v>-465.89413429645</v>
+        <v>253.209980774053</v>
       </c>
       <c r="E8" t="n">
-        <v>-205.157058903523</v>
+        <v>99.6356353890989</v>
       </c>
       <c r="F8" t="n">
-        <v>-153.881505645656</v>
+        <v>69.6915208484994</v>
       </c>
       <c r="G8" t="n">
-        <v>-131.989057978503</v>
+        <v>57.1342502954482</v>
       </c>
       <c r="H8" t="n">
-        <v>-119.817883926144</v>
+        <v>50.3049510758092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-16.7465142596255</v>
+        <v>14.1873050778056</v>
       </c>
       <c r="B9" t="n">
-        <v>-65.3458860431835</v>
+        <v>20.9254120281788</v>
       </c>
       <c r="C9" t="n">
-        <v>-324.476423191411</v>
+        <v>63.8525001396712</v>
       </c>
       <c r="D9" t="n">
-        <v>-484.773771993053</v>
+        <v>63.1901652742088</v>
       </c>
       <c r="E9" t="n">
-        <v>-211.788768284311</v>
+        <v>20.4847769409674</v>
       </c>
       <c r="F9" t="n">
-        <v>-157.861751391233</v>
+        <v>12.4757797929277</v>
       </c>
       <c r="G9" t="n">
-        <v>-134.750754369355</v>
+        <v>9.30944549591664</v>
       </c>
       <c r="H9" t="n">
-        <v>-121.873313417653</v>
+        <v>7.69524951037343</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-8.4657275956607</v>
+        <v>0.652273354212681</v>
       </c>
       <c r="B10" t="n">
-        <v>-33.6837794816967</v>
+        <v>-8.64178310436969</v>
       </c>
       <c r="C10" t="n">
-        <v>-164.761177097446</v>
+        <v>-51.694210520588</v>
       </c>
       <c r="D10" t="n">
-        <v>-242.655179091663</v>
+        <v>-82.9949805802146</v>
       </c>
       <c r="E10" t="n">
-        <v>-104.885135724373</v>
+        <v>-37.2371336032255</v>
       </c>
       <c r="F10" t="n">
-        <v>-77.6035444571326</v>
+        <v>-28.012415934801</v>
       </c>
       <c r="G10" t="n">
-        <v>-65.9108600771189</v>
+        <v>-23.9773433220852</v>
       </c>
       <c r="H10" t="n">
-        <v>-59.4074982977612</v>
+        <v>-21.6942222489496</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.7558609668193</v>
+        <v>3.85278627924559</v>
       </c>
       <c r="B2" t="n">
-        <v>32.1959536019684</v>
+        <v>15.6375467206458</v>
       </c>
       <c r="C2" t="n">
-        <v>166.97146949616</v>
+        <v>92.5417490605864</v>
       </c>
       <c r="D2" t="n">
-        <v>255.10747331387</v>
+        <v>149.732439495859</v>
       </c>
       <c r="E2" t="n">
-        <v>112.401892682977</v>
+        <v>67.6783547237921</v>
       </c>
       <c r="F2" t="n">
-        <v>84.1055911940567</v>
+        <v>51.2973809213445</v>
       </c>
       <c r="G2" t="n">
-        <v>71.9512641516168</v>
+        <v>44.2032425655544</v>
       </c>
       <c r="H2" t="n">
-        <v>65.1728953916355</v>
+        <v>40.217048059212</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.7237471926847</v>
+        <v>5.97717712751823</v>
       </c>
       <c r="B3" t="n">
-        <v>34.996624536372</v>
+        <v>21.6886736773274</v>
       </c>
       <c r="C3" t="n">
-        <v>180.576624464599</v>
+        <v>120.879902736272</v>
       </c>
       <c r="D3" t="n">
-        <v>274.436184524023</v>
+        <v>190.150710304398</v>
       </c>
       <c r="E3" t="n">
-        <v>120.405021272606</v>
+        <v>84.6907076292363</v>
       </c>
       <c r="F3" t="n">
-        <v>89.8280139371615</v>
+        <v>63.6513147425011</v>
       </c>
       <c r="G3" t="n">
-        <v>76.6898033173356</v>
+        <v>54.560963700066</v>
       </c>
       <c r="H3" t="n">
-        <v>69.3635346971277</v>
+        <v>49.4669329287495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.6946842034323</v>
+        <v>8.72881900845303</v>
       </c>
       <c r="B4" t="n">
-        <v>37.3528084106924</v>
+        <v>29.0045715527788</v>
       </c>
       <c r="C4" t="n">
-        <v>192.284437014305</v>
+        <v>155.094490311341</v>
       </c>
       <c r="D4" t="n">
-        <v>291.441856293464</v>
+        <v>239.201893918591</v>
       </c>
       <c r="E4" t="n">
-        <v>127.521478405708</v>
+        <v>105.437075401798</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9493023526086</v>
+        <v>78.7787364857888</v>
       </c>
       <c r="G4" t="n">
-        <v>80.9504713948482</v>
+        <v>67.2865528594296</v>
       </c>
       <c r="H4" t="n">
-        <v>73.1459842809782</v>
+        <v>60.8629691396506</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.2023487287628</v>
+        <v>4.49312466604185</v>
       </c>
       <c r="B5" t="n">
-        <v>69.4578835205006</v>
+        <v>18.1827002345988</v>
       </c>
       <c r="C5" t="n">
-        <v>365.318357689612</v>
+        <v>137.72705720083</v>
       </c>
       <c r="D5" t="n">
-        <v>560.948946633853</v>
+        <v>241.846193233963</v>
       </c>
       <c r="E5" t="n">
-        <v>247.216302053822</v>
+        <v>112.385376478447</v>
       </c>
       <c r="F5" t="n">
-        <v>184.820969735858</v>
+        <v>86.1143400966678</v>
       </c>
       <c r="G5" t="n">
-        <v>157.961490522398</v>
+        <v>74.5624594342175</v>
       </c>
       <c r="H5" t="n">
-        <v>142.965349036872</v>
+        <v>67.9977477964486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20.3958734846605</v>
+        <v>8.52944832174431</v>
       </c>
       <c r="B6" t="n">
-        <v>62.4798779826762</v>
+        <v>28.2866670060375</v>
       </c>
       <c r="C6" t="n">
-        <v>327.310628032293</v>
+        <v>175.706547495446</v>
       </c>
       <c r="D6" t="n">
-        <v>500.676595139877</v>
+        <v>288.532688747622</v>
       </c>
       <c r="E6" t="n">
-        <v>220.01594278737</v>
+        <v>130.462240778503</v>
       </c>
       <c r="F6" t="n">
-        <v>164.19992492794</v>
+        <v>98.6610899023497</v>
       </c>
       <c r="G6" t="n">
-        <v>140.1938073409</v>
+        <v>84.8248555917854</v>
       </c>
       <c r="H6" t="n">
-        <v>126.803303753243</v>
+        <v>77.033869453244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.8925652353773</v>
+        <v>11.9608348454188</v>
       </c>
       <c r="B7" t="n">
-        <v>52.8470825250366</v>
+        <v>35.8144771058774</v>
       </c>
       <c r="C7" t="n">
-        <v>277.71272517218</v>
+        <v>202.549902472715</v>
       </c>
       <c r="D7" t="n">
-        <v>425.55231188726</v>
+        <v>320.681584851221</v>
       </c>
       <c r="E7" t="n">
-        <v>187.046684104598</v>
+        <v>142.819733690852</v>
       </c>
       <c r="F7" t="n">
-        <v>139.591924693988</v>
+        <v>107.233799168584</v>
       </c>
       <c r="G7" t="n">
-        <v>119.17543624685</v>
+        <v>91.8405495923859</v>
       </c>
       <c r="H7" t="n">
-        <v>107.782772339558</v>
+        <v>83.2128400720096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.53714144486048</v>
+        <v>-5.31747058650006</v>
       </c>
       <c r="B8" t="n">
-        <v>13.591803070859</v>
+        <v>-11.4875330324193</v>
       </c>
       <c r="C8" t="n">
-        <v>67.9687889975971</v>
+        <v>-44.3236532628015</v>
       </c>
       <c r="D8" t="n">
-        <v>102.464644338305</v>
+        <v>-55.6887685699287</v>
       </c>
       <c r="E8" t="n">
-        <v>45.1204330052075</v>
+        <v>-21.9129823537742</v>
       </c>
       <c r="F8" t="n">
-        <v>33.8433403331756</v>
+        <v>-15.3273380612971</v>
       </c>
       <c r="G8" t="n">
-        <v>29.0285085961388</v>
+        <v>-12.5656027949339</v>
       </c>
       <c r="H8" t="n">
-        <v>26.3516879868007</v>
+        <v>-11.0636269937642</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.28271844985951</v>
+        <v>-3.62823165875132</v>
       </c>
       <c r="B9" t="n">
-        <v>16.7114199075013</v>
+        <v>-5.35142100467168</v>
       </c>
       <c r="C9" t="n">
-        <v>82.9809202441964</v>
+        <v>-16.3295045272271</v>
       </c>
       <c r="D9" t="n">
-        <v>123.975028184108</v>
+        <v>-16.1601203972329</v>
       </c>
       <c r="E9" t="n">
-        <v>54.1624156133207</v>
+        <v>-5.23873391120259</v>
       </c>
       <c r="F9" t="n">
-        <v>40.3712333640881</v>
+        <v>-3.19052977038761</v>
       </c>
       <c r="G9" t="n">
-        <v>34.4608754349234</v>
+        <v>-2.38077807507957</v>
       </c>
       <c r="H9" t="n">
-        <v>31.1676256818214</v>
+        <v>-1.96796697768946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.50739289547759</v>
+        <v>-0.424337494480875</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9130376821264</v>
+        <v>5.62192609382556</v>
       </c>
       <c r="C10" t="n">
-        <v>107.18565249632</v>
+        <v>33.6297529705939</v>
       </c>
       <c r="D10" t="n">
-        <v>157.85972254355</v>
+        <v>53.9925199863582</v>
       </c>
       <c r="E10" t="n">
-        <v>68.2331961195752</v>
+        <v>24.2246780016253</v>
       </c>
       <c r="F10" t="n">
-        <v>50.4851124227245</v>
+        <v>18.2235228763519</v>
       </c>
       <c r="G10" t="n">
-        <v>42.8784175278218</v>
+        <v>15.5984998066989</v>
       </c>
       <c r="H10" t="n">
-        <v>38.6476449148791</v>
+        <v>14.1132116686602</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
@@ -637,28 +637,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>#NUM!</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.571010406522909</v>
+        <v>1.20542323406298</v>
       </c>
       <c r="B5" t="n">
-        <v>2.31075517025188</v>
+        <v>4.02323772490074</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5030938971764</v>
+        <v>24.8709538085395</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7351127286208</v>
+        <v>40.9222228395479</v>
       </c>
       <c r="E5" t="n">
-        <v>14.2825370493716</v>
+        <v>18.5707188532725</v>
       </c>
       <c r="F5" t="n">
-        <v>10.9438726945825</v>
+        <v>14.080286722319</v>
       </c>
       <c r="G5" t="n">
-        <v>9.47579767698435</v>
+        <v>12.1252778587482</v>
       </c>
       <c r="H5" t="n">
-        <v>8.64151887557057</v>
+        <v>11.0230804454149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.4905075065374</v>
+        <v>2.07224532173024</v>
       </c>
       <c r="B6" t="n">
-        <v>4.94304999772839</v>
+        <v>6.49318827336568</v>
       </c>
       <c r="C6" t="n">
-        <v>30.7044392686084</v>
+        <v>37.4176665657063</v>
       </c>
       <c r="D6" t="n">
-        <v>50.420627716729</v>
+        <v>59.7164763436779</v>
       </c>
       <c r="E6" t="n">
-        <v>22.7980687454685</v>
+        <v>26.7121200144298</v>
       </c>
       <c r="F6" t="n">
-        <v>17.240868290124</v>
+        <v>20.1038163669174</v>
       </c>
       <c r="G6" t="n">
-        <v>14.8230083859223</v>
+        <v>17.2415286741393</v>
       </c>
       <c r="H6" t="n">
-        <v>13.4615459695054</v>
+        <v>15.6355210905761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.36197649205888</v>
+        <v>3.82942131460718</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0668081836661</v>
+        <v>11.2880784118138</v>
       </c>
       <c r="C7" t="n">
-        <v>56.9331505185782</v>
+        <v>62.2517015588679</v>
       </c>
       <c r="D7" t="n">
-        <v>90.1378510479917</v>
+        <v>97.515388178696</v>
       </c>
       <c r="E7" t="n">
-        <v>40.144069663721</v>
+        <v>43.2515424651308</v>
       </c>
       <c r="F7" t="n">
-        <v>30.1415007077893</v>
+        <v>32.4146955175494</v>
       </c>
       <c r="G7" t="n">
-        <v>25.8147338992504</v>
+        <v>27.7351256110217</v>
       </c>
       <c r="H7" t="n">
-        <v>23.389639249697</v>
+        <v>25.1158868726325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.96537434544321</v>
+        <v>0.384809289443601</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.24587260936944</v>
+        <v>2.82935257595767</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.3823324646479</v>
+        <v>15.2030197957348</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.5829586259547</v>
+        <v>23.607989948519</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.09919164566629</v>
+        <v>10.5628641753617</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.66509142261866</v>
+        <v>7.99967644112488</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.64433473894351</v>
+        <v>6.90465224407118</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.08919397058838</v>
+        <v>6.29470373220097</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.44781019951717</v>
+        <v>0.823372999136426</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.13543197931869</v>
+        <v>4.55457465478407</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.51612835981858</v>
+        <v>23.5215784893753</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.44853728678157</v>
+        <v>35.6998027007122</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.09046530171282</v>
+        <v>15.7254544763884</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.27314956096825</v>
+        <v>11.7768753784696</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.950026101991879</v>
+        <v>10.0815822456876</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.785297889052752</v>
+        <v>9.13466649650233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.197137968745834</v>
+        <v>1.78601254379304</v>
       </c>
       <c r="B10" t="n">
-        <v>2.61182456179564</v>
+        <v>8.31810832828362</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6236516364355</v>
+        <v>41.369262001696</v>
       </c>
       <c r="D10" t="n">
-        <v>25.0837502130258</v>
+        <v>61.3256477629187</v>
       </c>
       <c r="E10" t="n">
-        <v>11.2542584072253</v>
+        <v>26.5903168592079</v>
       </c>
       <c r="F10" t="n">
-        <v>8.46625228730326</v>
+        <v>19.7047415266792</v>
       </c>
       <c r="G10" t="n">
-        <v>7.24672367483543</v>
+        <v>16.7493327927714</v>
       </c>
       <c r="H10" t="n">
-        <v>6.55669111739326</v>
+        <v>15.1032274692345</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.976924431330845</v>
+        <v>2.0623221468429</v>
       </c>
       <c r="B5" t="n">
-        <v>3.95340111993661</v>
+        <v>6.88323571971497</v>
       </c>
       <c r="C5" t="n">
-        <v>29.9455138762753</v>
+        <v>42.550962519259</v>
       </c>
       <c r="D5" t="n">
-        <v>52.5837746235412</v>
+        <v>70.0125931500261</v>
       </c>
       <c r="E5" t="n">
-        <v>24.4355605879125</v>
+        <v>31.7720811177727</v>
       </c>
       <c r="F5" t="n">
-        <v>18.7235407386278</v>
+        <v>24.0895366214746</v>
       </c>
       <c r="G5" t="n">
-        <v>16.2118556006084</v>
+        <v>20.7447710962353</v>
       </c>
       <c r="H5" t="n">
-        <v>14.784513236385</v>
+        <v>18.8590548834754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.79480158885415</v>
+        <v>-10.8370746577741</v>
       </c>
       <c r="B6" t="n">
-        <v>-25.8503186378364</v>
+        <v>-33.9569670383878</v>
       </c>
       <c r="C6" t="n">
-        <v>-160.572832371589</v>
+        <v>-195.68052191508</v>
       </c>
       <c r="D6" t="n">
-        <v>-263.681187322837</v>
+        <v>-312.295028802522</v>
       </c>
       <c r="E6" t="n">
-        <v>-119.225446165524</v>
+        <v>-139.694482997839</v>
       </c>
       <c r="F6" t="n">
-        <v>-90.163348357288</v>
+        <v>-105.135505236684</v>
       </c>
       <c r="G6" t="n">
-        <v>-77.5188375847919</v>
+        <v>-90.1668019208218</v>
       </c>
       <c r="H6" t="n">
-        <v>-70.3988939682012</v>
+        <v>-81.7679777557884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-10.9306406393733</v>
+        <v>-12.450422644417</v>
       </c>
       <c r="B7" t="n">
-        <v>-32.7297537329803</v>
+        <v>-36.7004138547807</v>
       </c>
       <c r="C7" t="n">
-        <v>-185.104152350816</v>
+        <v>-202.396114469197</v>
       </c>
       <c r="D7" t="n">
-        <v>-293.061078844004</v>
+        <v>-317.047328411733</v>
       </c>
       <c r="E7" t="n">
-        <v>-130.518580463774</v>
+        <v>-140.621764875999</v>
       </c>
       <c r="F7" t="n">
-        <v>-97.9976847983537</v>
+        <v>-105.388419274775</v>
       </c>
       <c r="G7" t="n">
-        <v>-83.9302654614792</v>
+        <v>-90.1739473366454</v>
       </c>
       <c r="H7" t="n">
-        <v>-76.0456659726522</v>
+        <v>-81.6581360376422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.79296393956678</v>
+        <v>0.351052297585122</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.87340788193559</v>
+        <v>2.58115058475971</v>
       </c>
       <c r="C8" t="n">
-        <v>-14.9452095084125</v>
+        <v>13.869350808141</v>
       </c>
       <c r="D8" t="n">
-        <v>-18.7773401395496</v>
+        <v>21.5370037578283</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.38869854182687</v>
+        <v>9.6362479793611</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.16812721131443</v>
+        <v>7.29791320436938</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.23691533855102</v>
+        <v>6.29894885804909</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.73047371263284</v>
+        <v>5.74250744050882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.18441573455327</v>
+        <v>1.24228226553435</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.22188033849161</v>
+        <v>6.87181547928437</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.83135311679901</v>
+        <v>35.488702988041</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.72937358694999</v>
+        <v>53.8628687419731</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.15403586680215</v>
+        <v>23.7261280537185</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.9208926241479</v>
+        <v>17.7686218049722</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.43337294219881</v>
+        <v>15.2108107084874</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.18483559912092</v>
+        <v>13.7821305800379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.02566534827483</v>
+        <v>9.29222913985932</v>
       </c>
       <c r="B10" t="n">
-        <v>13.5887468347647</v>
+        <v>43.2772820466484</v>
       </c>
       <c r="C10" t="n">
-        <v>81.286411739737</v>
+        <v>215.235141098303</v>
       </c>
       <c r="D10" t="n">
-        <v>130.505217041432</v>
+        <v>319.063812370051</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5534229771028</v>
+        <v>138.343550842303</v>
       </c>
       <c r="F10" t="n">
-        <v>44.0480423739935</v>
+        <v>102.519421850612</v>
       </c>
       <c r="G10" t="n">
-        <v>37.7031041208729</v>
+        <v>87.1430823882425</v>
       </c>
       <c r="H10" t="n">
-        <v>34.1130169963455</v>
+        <v>78.5787596415709</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.49058355824473</v>
+        <v>3.14667479418062</v>
       </c>
       <c r="B5" t="n">
-        <v>6.0320681104229</v>
+        <v>10.5023865329613</v>
       </c>
       <c r="C5" t="n">
-        <v>45.6906278475996</v>
+        <v>64.9239215281898</v>
       </c>
       <c r="D5" t="n">
-        <v>80.231906758152</v>
+        <v>106.824659996822</v>
       </c>
       <c r="E5" t="n">
-        <v>37.2835847694142</v>
+        <v>48.4775896748265</v>
       </c>
       <c r="F5" t="n">
-        <v>28.5682301333217</v>
+        <v>36.7556241425841</v>
       </c>
       <c r="G5" t="n">
-        <v>24.7359208470044</v>
+        <v>31.6522074010113</v>
       </c>
       <c r="H5" t="n">
-        <v>22.5580931749099</v>
+        <v>28.7749965420031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.01152427764097</v>
+        <v>4.18690752528724</v>
       </c>
       <c r="B6" t="n">
-        <v>9.98727950611545</v>
+        <v>13.119285906826</v>
       </c>
       <c r="C6" t="n">
-        <v>62.0373690727514</v>
+        <v>75.6012370156232</v>
       </c>
       <c r="D6" t="n">
-        <v>101.873317508862</v>
+        <v>120.655291902514</v>
       </c>
       <c r="E6" t="n">
-        <v>46.0627921759369</v>
+        <v>53.9710116036884</v>
       </c>
       <c r="F6" t="n">
-        <v>34.8346406815068</v>
+        <v>40.6191386468463</v>
       </c>
       <c r="G6" t="n">
-        <v>29.9494295909879</v>
+        <v>34.8359749669672</v>
       </c>
       <c r="H6" t="n">
-        <v>27.1986369232877</v>
+        <v>31.5910863590515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.74662038133268</v>
+        <v>5.40658428265592</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2128646682754</v>
+        <v>15.9371200786667</v>
       </c>
       <c r="C7" t="n">
-        <v>80.38130345744</v>
+        <v>87.8903216872305</v>
       </c>
       <c r="D7" t="n">
-        <v>127.261496897591</v>
+        <v>137.677503134207</v>
       </c>
       <c r="E7" t="n">
-        <v>56.6775703832375</v>
+        <v>61.0648686788826</v>
       </c>
       <c r="F7" t="n">
-        <v>42.5554021336805</v>
+        <v>45.7648216047069</v>
       </c>
       <c r="G7" t="n">
-        <v>36.4466385634429</v>
+        <v>39.1579515249603</v>
       </c>
       <c r="H7" t="n">
-        <v>33.0227586768879</v>
+        <v>35.4599685055726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-8.01242468290359</v>
+        <v>1.56878787804326</v>
       </c>
       <c r="B8" t="n">
-        <v>-17.3095444003591</v>
+        <v>11.534685221063</v>
       </c>
       <c r="C8" t="n">
-        <v>-66.7873808913877</v>
+        <v>61.9795670725252</v>
       </c>
       <c r="D8" t="n">
-        <v>-83.9124648818962</v>
+        <v>96.2448918781411</v>
       </c>
       <c r="E8" t="n">
-        <v>-33.0187290801687</v>
+        <v>43.062612390893</v>
       </c>
       <c r="F8" t="n">
-        <v>-23.0954059468295</v>
+        <v>32.6130261752537</v>
       </c>
       <c r="G8" t="n">
-        <v>-18.9339920836231</v>
+        <v>28.1488390217009</v>
       </c>
       <c r="H8" t="n">
-        <v>-16.670797997892</v>
+        <v>25.6622051022441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.26805458843877</v>
+        <v>2.42725248664001</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.29512090788524</v>
+        <v>13.4266033353135</v>
       </c>
       <c r="C9" t="n">
-        <v>-19.2091418849339</v>
+        <v>69.340153172274</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.0098875976597</v>
+        <v>105.240802125822</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.16256193382455</v>
+        <v>46.3576635636478</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.75316586889048</v>
+        <v>34.7174975099024</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.8006179712612</v>
+        <v>29.719878597885</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.31500942580777</v>
+        <v>26.9284297536076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.349279558522384</v>
+        <v>3.16437100767611</v>
       </c>
       <c r="B10" t="n">
-        <v>4.62750496865499</v>
+        <v>14.7376237217402</v>
       </c>
       <c r="C10" t="n">
-        <v>27.6812335076727</v>
+        <v>73.2960660002468</v>
       </c>
       <c r="D10" t="n">
-        <v>44.4421805511607</v>
+        <v>108.653829158337</v>
       </c>
       <c r="E10" t="n">
-        <v>19.9397530216033</v>
+        <v>47.1114427760416</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0000980534649</v>
+        <v>34.9119120229428</v>
       </c>
       <c r="G10" t="n">
-        <v>12.8393959924766</v>
+        <v>29.6756611657404</v>
       </c>
       <c r="H10" t="n">
-        <v>11.6168295403477</v>
+        <v>26.7591710327433</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.23681375723865</v>
+        <v>-2.61095773764043</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.00511680965869</v>
+        <v>-8.71436966814564</v>
       </c>
       <c r="C5" t="n">
-        <v>-37.9118612882916</v>
+        <v>-53.8707131685426</v>
       </c>
       <c r="D5" t="n">
-        <v>-66.5725349639731</v>
+        <v>-88.6379085329469</v>
       </c>
       <c r="E5" t="n">
-        <v>-30.9361057331707</v>
+        <v>-40.2243466969407</v>
       </c>
       <c r="F5" t="n">
-        <v>-23.7045282388998</v>
+        <v>-30.4980296770302</v>
       </c>
       <c r="G5" t="n">
-        <v>-20.5246643385545</v>
+        <v>-26.2634626177154</v>
       </c>
       <c r="H5" t="n">
-        <v>-18.7176088327811</v>
+        <v>-23.8760929508393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.84362586252604</v>
+        <v>-3.95347917707576</v>
       </c>
       <c r="B6" t="n">
-        <v>-9.43046898566362</v>
+        <v>-12.3878598553909</v>
       </c>
       <c r="C6" t="n">
-        <v>-58.5786634522959</v>
+        <v>-71.3863190188159</v>
       </c>
       <c r="D6" t="n">
-        <v>-96.1936792342417</v>
+        <v>-113.928521530426</v>
       </c>
       <c r="E6" t="n">
-        <v>-43.4947007082612</v>
+        <v>-50.9620213133936</v>
       </c>
       <c r="F6" t="n">
-        <v>-32.8925407937701</v>
+        <v>-38.3545415945252</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.2796898517944</v>
+        <v>-32.8938006901857</v>
       </c>
       <c r="H6" t="n">
-        <v>-25.6822592979731</v>
+        <v>-29.8298210188304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.72676730994944</v>
+        <v>-3.10589347705397</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.16479339923697</v>
+        <v>-9.155317795405</v>
       </c>
       <c r="C7" t="n">
-        <v>-46.1762460425233</v>
+        <v>-50.4899142514518</v>
       </c>
       <c r="D7" t="n">
-        <v>-73.1072766889683</v>
+        <v>-79.0909077831951</v>
       </c>
       <c r="E7" t="n">
-        <v>-32.5592808593173</v>
+        <v>-35.0796302048454</v>
       </c>
       <c r="F7" t="n">
-        <v>-24.4465893788821</v>
+        <v>-26.290288557339</v>
       </c>
       <c r="G7" t="n">
-        <v>-20.9373184725668</v>
+        <v>-22.494872891619</v>
       </c>
       <c r="H7" t="n">
-        <v>-18.9704192900309</v>
+        <v>-20.3705110509985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24.1778846893255</v>
+        <v>-4.7338944100497</v>
       </c>
       <c r="B8" t="n">
-        <v>52.2323996916477</v>
+        <v>-34.8064787176838</v>
       </c>
       <c r="C8" t="n">
-        <v>201.534199421499</v>
+        <v>-187.026385280265</v>
       </c>
       <c r="D8" t="n">
-        <v>253.209980774053</v>
+        <v>-290.423684447418</v>
       </c>
       <c r="E8" t="n">
-        <v>99.6356353890989</v>
+        <v>-129.943546181432</v>
       </c>
       <c r="F8" t="n">
-        <v>69.6915208484994</v>
+        <v>-98.4114069637022</v>
       </c>
       <c r="G8" t="n">
-        <v>57.1342502954482</v>
+        <v>-84.9405031484725</v>
       </c>
       <c r="H8" t="n">
-        <v>50.3049510758092</v>
+        <v>-77.4369632652865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14.1873050778056</v>
+        <v>-8.06835311387634</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9254120281788</v>
+        <v>-44.6309468938761</v>
       </c>
       <c r="C9" t="n">
-        <v>63.8525001396712</v>
+        <v>-230.491406989401</v>
       </c>
       <c r="D9" t="n">
-        <v>63.1901652742088</v>
+        <v>-349.827617115407</v>
       </c>
       <c r="E9" t="n">
-        <v>20.4847769409674</v>
+        <v>-154.096041192464</v>
       </c>
       <c r="F9" t="n">
-        <v>12.4757797929277</v>
+        <v>-115.403333885454</v>
       </c>
       <c r="G9" t="n">
-        <v>9.30944549591664</v>
+        <v>-98.7909071467092</v>
       </c>
       <c r="H9" t="n">
-        <v>7.69524951037343</v>
+        <v>-89.5119404553909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.652273354212681</v>
+        <v>-5.90940649341774</v>
       </c>
       <c r="B10" t="n">
-        <v>-8.64178310436969</v>
+        <v>-27.522249795468</v>
       </c>
       <c r="C10" t="n">
-        <v>-51.694210520588</v>
+        <v>-136.879097714249</v>
       </c>
       <c r="D10" t="n">
-        <v>-82.9949805802146</v>
+        <v>-202.909090623517</v>
       </c>
       <c r="E10" t="n">
-        <v>-37.2371336032255</v>
+        <v>-87.9797802405838</v>
       </c>
       <c r="F10" t="n">
-        <v>-28.012415934801</v>
+        <v>-65.1973738558295</v>
       </c>
       <c r="G10" t="n">
-        <v>-23.9773433220852</v>
+        <v>-55.4187686475103</v>
       </c>
       <c r="H10" t="n">
-        <v>-21.6942222489496</v>
+        <v>-49.9722752723294</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.49312466604185</v>
+        <v>9.48514563678274</v>
       </c>
       <c r="B5" t="n">
-        <v>18.1827002345988</v>
+        <v>31.6577569385793</v>
       </c>
       <c r="C5" t="n">
-        <v>137.72705720083</v>
+        <v>195.70273106862</v>
       </c>
       <c r="D5" t="n">
-        <v>241.846193233963</v>
+        <v>322.00577560272</v>
       </c>
       <c r="E5" t="n">
-        <v>112.385376478447</v>
+        <v>146.127905888558</v>
       </c>
       <c r="F5" t="n">
-        <v>86.1143400966678</v>
+        <v>110.79392398859</v>
       </c>
       <c r="G5" t="n">
-        <v>74.5624594342175</v>
+        <v>95.4104941125388</v>
       </c>
       <c r="H5" t="n">
-        <v>67.9977477964486</v>
+        <v>86.7376042174993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.52944832174431</v>
+        <v>11.8584504299047</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2866670060375</v>
+        <v>37.1573531687136</v>
       </c>
       <c r="C6" t="n">
-        <v>175.706547495446</v>
+        <v>214.123076799442</v>
       </c>
       <c r="D6" t="n">
-        <v>288.532688747622</v>
+        <v>341.728301733506</v>
       </c>
       <c r="E6" t="n">
-        <v>130.462240778503</v>
+        <v>152.860449362382</v>
       </c>
       <c r="F6" t="n">
-        <v>98.6610899023497</v>
+        <v>115.044346988773</v>
       </c>
       <c r="G6" t="n">
-        <v>84.8248555917854</v>
+        <v>98.6648689583464</v>
       </c>
       <c r="H6" t="n">
-        <v>77.033869453244</v>
+        <v>89.4744699645472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11.9608348454188</v>
+        <v>13.6238537079994</v>
       </c>
       <c r="B7" t="n">
-        <v>35.8144771058774</v>
+        <v>40.1593651605694</v>
       </c>
       <c r="C7" t="n">
-        <v>202.549902472715</v>
+        <v>221.471602478677</v>
       </c>
       <c r="D7" t="n">
-        <v>320.681584851221</v>
+        <v>346.928497461922</v>
       </c>
       <c r="E7" t="n">
-        <v>142.819733690852</v>
+        <v>153.875125973364</v>
       </c>
       <c r="F7" t="n">
-        <v>107.233799168584</v>
+        <v>115.321097742868</v>
       </c>
       <c r="G7" t="n">
-        <v>91.8405495923859</v>
+        <v>98.6726878174039</v>
       </c>
       <c r="H7" t="n">
-        <v>83.2128400720096</v>
+        <v>89.3542758521225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.31747058650006</v>
+        <v>1.04113095949001</v>
       </c>
       <c r="B8" t="n">
-        <v>-11.4875330324193</v>
+        <v>7.65502975877113</v>
       </c>
       <c r="C8" t="n">
-        <v>-44.3236532628015</v>
+        <v>41.1329326533809</v>
       </c>
       <c r="D8" t="n">
-        <v>-55.6887685699287</v>
+        <v>63.8732221414694</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.9129823537742</v>
+        <v>28.5786367833221</v>
       </c>
       <c r="F8" t="n">
-        <v>-15.3273380612971</v>
+        <v>21.6437363578216</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.5656027949339</v>
+        <v>18.681064654673</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.0636269937642</v>
+        <v>17.030802312199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.62823165875132</v>
+        <v>2.06338371108594</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.35142100467168</v>
+        <v>11.413824795643</v>
       </c>
       <c r="C9" t="n">
-        <v>-16.3295045272271</v>
+        <v>58.9453892281021</v>
       </c>
       <c r="D9" t="n">
-        <v>-16.1601203972329</v>
+        <v>89.4641814328261</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.23873391120259</v>
+        <v>39.4081985321783</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.19052977038761</v>
+        <v>29.5130066797306</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.38077807507957</v>
+        <v>25.264579491364</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.96796697768946</v>
+        <v>22.8915960018776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.424337494480875</v>
+        <v>3.84437403289706</v>
       </c>
       <c r="B10" t="n">
-        <v>5.62192609382556</v>
+        <v>17.9046444949178</v>
       </c>
       <c r="C10" t="n">
-        <v>33.6297529705939</v>
+        <v>89.0469202762015</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9925199863582</v>
+        <v>132.002839862291</v>
       </c>
       <c r="E10" t="n">
-        <v>24.2246780016253</v>
+        <v>57.2353895359252</v>
       </c>
       <c r="F10" t="n">
-        <v>18.2235228763519</v>
+        <v>42.4142579028222</v>
       </c>
       <c r="G10" t="n">
-        <v>15.5984998066989</v>
+        <v>36.0527703350458</v>
       </c>
       <c r="H10" t="n">
-        <v>14.1132116686602</v>
+        <v>32.5095451862574</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>1.9814885203042</v>
@@ -490,39 +502,45 @@
         <v>0.0192120257909732</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00339391332427593</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00339391332427593</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.533333333333333</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>1.87964206382199</v>
@@ -537,39 +555,45 @@
         <v>0.0194203213742901</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00338052729531845</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00338052729531845</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.529166666666667</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>1.78038562829886</v>
@@ -584,39 +608,45 @@
         <v>0.0189078623710103</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00336409231980397</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00336409231980397</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.525</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>1.84904982670564</v>
@@ -631,39 +661,45 @@
         <v>0.0192692523467476</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00335993815264437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00335993815264437</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.516666666666667</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>1.79142634411735</v>
@@ -678,39 +714,45 @@
         <v>0.019481981981982</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00331886908483644</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00331886908483644</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.516666666666667</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>1.73330294191692</v>
@@ -725,39 +767,45 @@
         <v>0.0190161130614817</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00328374497014676</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00328374497014676</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.516666666666667</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>1.78306667252086</v>
@@ -772,39 +820,45 @@
         <v>0.0203417463162087</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00307547202717553</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00307547202717553</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.525</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>1.73870871353009</v>
@@ -819,39 +873,45 @@
         <v>0.0203606421615581</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00306468173325087</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00306468173325087</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>1.69557514225692</v>
@@ -866,39 +926,45 @@
         <v>0.0202709771918811</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00306382230538283</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00306382230538283</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.516666666666667</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>1.6377831464166</v>
@@ -913,33 +979,39 @@
         <v>0.0204894931457431</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00303359057129059</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00303359057129059</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.508333333333333</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>-0.00127746735476999</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000360322752985345</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000360322752985345</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.025</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>-0.00106917177145309</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000346936724027861</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000346936724027861</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>-0.00158163077473283</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000330501748513379</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000330501748513379</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>-0.00122024079899553</v>
       </c>
       <c r="E5" t="n">
+        <v>0.00032634758135378</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00032634758135378</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.00833333333333341</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>-0.00100751116376116</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000285278513545846</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000285278513545846</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.00833333333333341</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>-0.00147338008426146</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000250154398856172</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000250154398856172</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.00833333333333341</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>-0.00014774682953447</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0000418814558849419</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0000418814558849419</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>-0.000128850984185042</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0000310911619602824</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0000310911619602824</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0125000000000001</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>-0.000218515953862006</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0000302317340922396</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000302317340922396</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.00833333333333341</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>-0.0623474356189915</v>
       </c>
       <c r="E2" t="n">
+        <v>0.11877764797774</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.11877764797774</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0491803278688525</v>
       </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>-0.052181465097648</v>
       </c>
       <c r="E3" t="n">
+        <v>0.114365045603456</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.114365045603456</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0409836065573771</v>
       </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>-0.0771922840395604</v>
       </c>
       <c r="E4" t="n">
+        <v>0.108947381245576</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.108947381245576</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0327868852459017</v>
       </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>-0.0595544648330673</v>
       </c>
       <c r="E5" t="n">
+        <v>0.107577991717894</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.107577991717894</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.016393442622951</v>
       </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>-0.0491720881817168</v>
       </c>
       <c r="E6" t="n">
+        <v>0.094039886676098</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.094039886676098</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.016393442622951</v>
       </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>-0.0719090547424092</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0824614900981011</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0824614900981011</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.016393442622951</v>
       </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>-0.00721085819368671</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0138059025767357</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0138059025767357</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0327868852459017</v>
       </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>-0.00628863697449793</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0102489644629451</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0102489644629451</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0245901639344264</v>
       </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>-0.0106647808370703</v>
       </c>
       <c r="E10" t="n">
+        <v>0.00996566061957993</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00996566061957993</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.016393442622951</v>
       </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1911,14 +2109,14 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="e">
-        <v>#NUM!</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.85278627924559</v>
+        <v>1.59526051953331</v>
       </c>
       <c r="B2" t="n">
-        <v>15.6375467206458</v>
+        <v>6.47478450600394</v>
       </c>
       <c r="C2" t="n">
-        <v>92.5417490605864</v>
+        <v>38.3172561323125</v>
       </c>
       <c r="D2" t="n">
-        <v>149.732439495859</v>
+        <v>61.9972746756994</v>
       </c>
       <c r="E2" t="n">
-        <v>67.6783547237921</v>
+        <v>28.0224750330498</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2973809213445</v>
+        <v>21.2398717728267</v>
       </c>
       <c r="G2" t="n">
-        <v>44.2032425655544</v>
+        <v>18.3025173444064</v>
       </c>
       <c r="H2" t="n">
-        <v>40.217048059212</v>
+        <v>16.6520186511869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.97717712751823</v>
+        <v>2.14196806747532</v>
       </c>
       <c r="B3" t="n">
-        <v>21.6886736773274</v>
+        <v>7.77230546320065</v>
       </c>
       <c r="C3" t="n">
-        <v>120.879902736272</v>
+        <v>43.3182564506204</v>
       </c>
       <c r="D3" t="n">
-        <v>190.150710304398</v>
+        <v>68.1419909081535</v>
       </c>
       <c r="E3" t="n">
-        <v>84.6907076292363</v>
+        <v>30.3495759760148</v>
       </c>
       <c r="F3" t="n">
-        <v>63.6513147425011</v>
+        <v>22.8099453508863</v>
       </c>
       <c r="G3" t="n">
-        <v>54.560963700066</v>
+        <v>19.5523471168649</v>
       </c>
       <c r="H3" t="n">
-        <v>49.4669329287495</v>
+        <v>17.726861437904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.72881900845303</v>
+        <v>2.62687165024462</v>
       </c>
       <c r="B4" t="n">
-        <v>29.0045715527788</v>
+        <v>8.72870507060603</v>
       </c>
       <c r="C4" t="n">
-        <v>155.094490311341</v>
+        <v>46.674506518403</v>
       </c>
       <c r="D4" t="n">
-        <v>239.201893918591</v>
+        <v>71.9859895377678</v>
       </c>
       <c r="E4" t="n">
-        <v>105.437075401798</v>
+        <v>31.7304854172678</v>
       </c>
       <c r="F4" t="n">
-        <v>78.7787364857888</v>
+        <v>23.7078612027821</v>
       </c>
       <c r="G4" t="n">
-        <v>67.2865528594296</v>
+        <v>20.2493760012613</v>
       </c>
       <c r="H4" t="n">
-        <v>60.8629691396506</v>
+        <v>18.3162473672365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.48514563678274</v>
+        <v>1.4454089380539</v>
       </c>
       <c r="B5" t="n">
-        <v>31.6577569385793</v>
+        <v>4.82421742269432</v>
       </c>
       <c r="C5" t="n">
-        <v>195.70273106862</v>
+        <v>29.8224705787531</v>
       </c>
       <c r="D5" t="n">
-        <v>322.00577560272</v>
+        <v>49.0693600271401</v>
       </c>
       <c r="E5" t="n">
-        <v>146.127905888558</v>
+        <v>22.2679323395252</v>
       </c>
       <c r="F5" t="n">
-        <v>110.79392398859</v>
+        <v>16.8835075546073</v>
       </c>
       <c r="G5" t="n">
-        <v>95.4104941125388</v>
+        <v>14.5392792325305</v>
       </c>
       <c r="H5" t="n">
-        <v>86.7376042174993</v>
+        <v>13.2176471719289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11.8584504299047</v>
+        <v>2.06721672676325</v>
       </c>
       <c r="B6" t="n">
-        <v>37.1573531687136</v>
+        <v>6.47743163802489</v>
       </c>
       <c r="C6" t="n">
-        <v>214.123076799442</v>
+        <v>37.3268673307915</v>
       </c>
       <c r="D6" t="n">
-        <v>341.728301733506</v>
+        <v>59.5715659080073</v>
       </c>
       <c r="E6" t="n">
-        <v>152.860449362382</v>
+        <v>26.6472992951579</v>
       </c>
       <c r="F6" t="n">
-        <v>115.044346988773</v>
+        <v>20.0550316266456</v>
       </c>
       <c r="G6" t="n">
-        <v>98.6648689583464</v>
+        <v>17.199689677856</v>
       </c>
       <c r="H6" t="n">
-        <v>89.4744699645472</v>
+        <v>15.5975792977595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13.6238537079994</v>
+        <v>2.70843837286793</v>
       </c>
       <c r="B7" t="n">
-        <v>40.1593651605694</v>
+        <v>7.98372971129576</v>
       </c>
       <c r="C7" t="n">
-        <v>221.471602478677</v>
+        <v>44.0288188283758</v>
       </c>
       <c r="D7" t="n">
-        <v>346.928497461922</v>
+        <v>68.9697992437755</v>
       </c>
       <c r="E7" t="n">
-        <v>153.875125973364</v>
+        <v>30.5905586443166</v>
       </c>
       <c r="F7" t="n">
-        <v>115.321097742868</v>
+        <v>22.9259718301763</v>
       </c>
       <c r="G7" t="n">
-        <v>98.6726878174039</v>
+        <v>19.6162480724347</v>
       </c>
       <c r="H7" t="n">
-        <v>89.3542758521225</v>
+        <v>17.7637366551885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.04113095949001</v>
+        <v>2.47252514676412</v>
       </c>
       <c r="B8" t="n">
-        <v>7.65502975877113</v>
+        <v>18.1795127743206</v>
       </c>
       <c r="C8" t="n">
-        <v>41.1329326533809</v>
+        <v>97.6843589354573</v>
       </c>
       <c r="D8" t="n">
-        <v>63.8732221414694</v>
+        <v>151.689032498845</v>
       </c>
       <c r="E8" t="n">
-        <v>28.5786367833221</v>
+        <v>67.8698462118683</v>
       </c>
       <c r="F8" t="n">
-        <v>21.6437363578216</v>
+        <v>51.4005293252066</v>
       </c>
       <c r="G8" t="n">
-        <v>18.681064654673</v>
+        <v>44.3646418406679</v>
       </c>
       <c r="H8" t="n">
-        <v>17.030802312199</v>
+        <v>40.4455237860829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.06338371108594</v>
+        <v>4.95064100365203</v>
       </c>
       <c r="B9" t="n">
-        <v>11.413824795643</v>
+        <v>27.3849932701428</v>
       </c>
       <c r="C9" t="n">
-        <v>58.9453892281021</v>
+        <v>141.426657252853</v>
       </c>
       <c r="D9" t="n">
-        <v>89.4641814328261</v>
+        <v>214.649869813316</v>
       </c>
       <c r="E9" t="n">
-        <v>39.4081985321783</v>
+        <v>94.5514120739008</v>
       </c>
       <c r="F9" t="n">
-        <v>29.5130066797306</v>
+        <v>70.8100486713812</v>
       </c>
       <c r="G9" t="n">
-        <v>25.264579491364</v>
+        <v>60.6168704821977</v>
       </c>
       <c r="H9" t="n">
-        <v>22.8915960018776</v>
+        <v>54.923412061971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.84437403289706</v>
+        <v>6.32396862939901</v>
       </c>
       <c r="B10" t="n">
-        <v>17.9046444949178</v>
+        <v>29.4530160534548</v>
       </c>
       <c r="C10" t="n">
-        <v>89.0469202762015</v>
+        <v>146.481566453337</v>
       </c>
       <c r="D10" t="n">
-        <v>132.002839862291</v>
+        <v>217.143756340387</v>
       </c>
       <c r="E10" t="n">
-        <v>57.2353895359252</v>
+        <v>94.1518189487561</v>
       </c>
       <c r="F10" t="n">
-        <v>42.4142579028222</v>
+        <v>69.7711601736514</v>
       </c>
       <c r="G10" t="n">
-        <v>36.0527703350458</v>
+        <v>59.3065572316184</v>
       </c>
       <c r="H10" t="n">
-        <v>32.5095451862574</v>
+        <v>53.477976428582</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>1.59526051953331</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.47478450600394</v>
+      </c>
+      <c r="C2" t="n">
+        <v>38.3172561323125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.9972746756994</v>
+      </c>
+      <c r="E2" t="n">
+        <v>28.0224750330498</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21.2398717728267</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.3025173444064</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16.6520186511869</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>2.14196806747532</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.77230546320065</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43.3182564506204</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68.1419909081535</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30.3495759760148</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22.8099453508863</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.5523471168649</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17.726861437904</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>2.62687165024462</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.72870507060603</v>
+      </c>
+      <c r="C4" t="n">
+        <v>46.674506518403</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.9859895377678</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31.7304854172678</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.7078612027821</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.2493760012613</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18.3162473672365</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>1.4454089380539</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.82421742269432</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.8224705787531</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49.0693600271401</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22.2679323395252</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.8835075546073</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.5392792325305</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.2176471719289</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>2.06721672676325</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.47743163802489</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37.3268673307915</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.5715659080073</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.6472992951579</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.0550316266456</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.199689677856</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.5975792977595</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>2.70843837286793</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.98372971129576</v>
+      </c>
+      <c r="C7" t="n">
+        <v>44.0288188283758</v>
+      </c>
+      <c r="D7" t="n">
+        <v>68.9697992437755</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30.5905586443166</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.9259718301763</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.6162480724347</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17.7637366551885</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>2.47252514676412</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.1795127743206</v>
+      </c>
+      <c r="C8" t="n">
+        <v>97.6843589354573</v>
+      </c>
+      <c r="D8" t="n">
+        <v>151.689032498845</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67.8698462118683</v>
+      </c>
+      <c r="F8" t="n">
+        <v>51.4005293252066</v>
+      </c>
+      <c r="G8" t="n">
+        <v>44.3646418406679</v>
+      </c>
+      <c r="H8" t="n">
+        <v>40.4455237860829</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>4.95064100365203</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27.3849932701428</v>
+      </c>
+      <c r="C9" t="n">
+        <v>141.426657252853</v>
+      </c>
+      <c r="D9" t="n">
+        <v>214.649869813316</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.5514120739008</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70.8100486713812</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60.6168704821977</v>
+      </c>
+      <c r="H9" t="n">
+        <v>54.923412061971</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>6.32396862939901</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.4530160534548</v>
+      </c>
+      <c r="C10" t="n">
+        <v>146.481566453337</v>
+      </c>
+      <c r="D10" t="n">
+        <v>217.143756340387</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.1518189487561</v>
+      </c>
+      <c r="F10" t="n">
+        <v>69.7711601736514</v>
+      </c>
+      <c r="G10" t="n">
+        <v>59.3065572316184</v>
+      </c>
+      <c r="H10" t="n">
+        <v>53.477976428582</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.85278627924559</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.6375467206458</v>
+      </c>
+      <c r="C2" t="n">
+        <v>92.5417490605864</v>
+      </c>
+      <c r="D2" t="n">
+        <v>149.732439495859</v>
+      </c>
+      <c r="E2" t="n">
+        <v>67.6783547237921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51.2973809213445</v>
+      </c>
+      <c r="G2" t="n">
+        <v>44.2032425655544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40.217048059212</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.97717712751823</v>
+      </c>
+      <c r="B3" t="n">
+        <v>21.6886736773274</v>
+      </c>
+      <c r="C3" t="n">
+        <v>120.879902736272</v>
+      </c>
+      <c r="D3" t="n">
+        <v>190.150710304398</v>
+      </c>
+      <c r="E3" t="n">
+        <v>84.6907076292363</v>
+      </c>
+      <c r="F3" t="n">
+        <v>63.6513147425011</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.560963700066</v>
+      </c>
+      <c r="H3" t="n">
+        <v>49.4669329287495</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8.72881900845303</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29.0045715527788</v>
+      </c>
+      <c r="C4" t="n">
+        <v>155.094490311341</v>
+      </c>
+      <c r="D4" t="n">
+        <v>239.201893918591</v>
+      </c>
+      <c r="E4" t="n">
+        <v>105.437075401798</v>
+      </c>
+      <c r="F4" t="n">
+        <v>78.7787364857888</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67.2865528594296</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60.8629691396506</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9.48514563678274</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31.6577569385793</v>
+      </c>
+      <c r="C5" t="n">
+        <v>195.70273106862</v>
+      </c>
+      <c r="D5" t="n">
+        <v>322.00577560272</v>
+      </c>
+      <c r="E5" t="n">
+        <v>146.127905888558</v>
+      </c>
+      <c r="F5" t="n">
+        <v>110.79392398859</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95.4104941125388</v>
+      </c>
+      <c r="H5" t="n">
+        <v>86.7376042174993</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11.8584504299047</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37.1573531687136</v>
+      </c>
+      <c r="C6" t="n">
+        <v>214.123076799442</v>
+      </c>
+      <c r="D6" t="n">
+        <v>341.728301733506</v>
+      </c>
+      <c r="E6" t="n">
+        <v>152.860449362382</v>
+      </c>
+      <c r="F6" t="n">
+        <v>115.044346988773</v>
+      </c>
+      <c r="G6" t="n">
+        <v>98.6648689583464</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89.4744699645472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13.6238537079994</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40.1593651605694</v>
+      </c>
+      <c r="C7" t="n">
+        <v>221.471602478677</v>
+      </c>
+      <c r="D7" t="n">
+        <v>346.928497461922</v>
+      </c>
+      <c r="E7" t="n">
+        <v>153.875125973364</v>
+      </c>
+      <c r="F7" t="n">
+        <v>115.321097742868</v>
+      </c>
+      <c r="G7" t="n">
+        <v>98.6726878174039</v>
+      </c>
+      <c r="H7" t="n">
+        <v>89.3542758521225</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.04113095949001</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.65502975877113</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41.1329326533809</v>
+      </c>
+      <c r="D8" t="n">
+        <v>63.8732221414694</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28.5786367833221</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21.6437363578216</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18.681064654673</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17.030802312199</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.06338371108594</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11.413824795643</v>
+      </c>
+      <c r="C9" t="n">
+        <v>58.9453892281021</v>
+      </c>
+      <c r="D9" t="n">
+        <v>89.4641814328261</v>
+      </c>
+      <c r="E9" t="n">
+        <v>39.4081985321783</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29.5130066797306</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25.264579491364</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.8915960018776</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.84437403289706</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.9046444949178</v>
+      </c>
+      <c r="C10" t="n">
+        <v>89.0469202762015</v>
+      </c>
+      <c r="D10" t="n">
+        <v>132.002839862291</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.2353895359252</v>
+      </c>
+      <c r="F10" t="n">
+        <v>42.4142579028222</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36.0527703350458</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32.5095451862574</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_3.xlsx
@@ -504,7 +504,7 @@
         <v>0.0192120257909732</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00339391332427593</v>
+        <v>1.11288453077703</v>
       </c>
       <c r="G2" t="n">
         <v>0.00339391332427593</v>
@@ -557,7 +557,7 @@
         <v>0.0194203213742901</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00338052729531845</v>
+        <v>1.09384314137603</v>
       </c>
       <c r="G3" t="n">
         <v>0.00338052729531845</v>
@@ -610,7 +610,7 @@
         <v>0.0189078623710103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00336409231980397</v>
+        <v>1.07841759387164</v>
       </c>
       <c r="G4" t="n">
         <v>0.00336409231980397</v>
@@ -663,7 +663,7 @@
         <v>0.0192692523467476</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00335993815264437</v>
+        <v>1.05829367528239</v>
       </c>
       <c r="G5" t="n">
         <v>0.00335993815264437</v>
@@ -716,7 +716,7 @@
         <v>0.019481981981982</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00331886908483644</v>
+        <v>1.05336613473982</v>
       </c>
       <c r="G6" t="n">
         <v>0.00331886908483644</v>
@@ -769,7 +769,7 @@
         <v>0.0190161130614817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00328374497014676</v>
+        <v>1.04237894588575</v>
       </c>
       <c r="G7" t="n">
         <v>0.00328374497014676</v>
@@ -822,7 +822,7 @@
         <v>0.0203417463162087</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00307547202717553</v>
+        <v>1.05691575733057</v>
       </c>
       <c r="G8" t="n">
         <v>0.00307547202717553</v>
@@ -875,7 +875,7 @@
         <v>0.0203606421615581</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00306468173325087</v>
+        <v>1.04750434261212</v>
       </c>
       <c r="G9" t="n">
         <v>0.00306468173325087</v>
@@ -928,7 +928,7 @@
         <v>0.0202709771918811</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00306382230538283</v>
+        <v>1.04734407549149</v>
       </c>
       <c r="G10" t="n">
         <v>0.00306382230538283</v>
@@ -981,7 +981,7 @@
         <v>0.0204894931457431</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00303359057129059</v>
+        <v>1.01409406549538</v>
       </c>
       <c r="G11" t="n">
         <v>0.00303359057129059</v>
@@ -1695,7 +1695,7 @@
         <v>-0.00127746735476999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000360322752985345</v>
+        <v>0.0987904652816471</v>
       </c>
       <c r="F2" t="n">
         <v>0.000360322752985345</v>
@@ -1745,7 +1745,7 @@
         <v>-0.00106917177145309</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000346936724027861</v>
+        <v>0.0797490758806498</v>
       </c>
       <c r="F3" t="n">
         <v>0.000346936724027861</v>
@@ -1795,7 +1795,7 @@
         <v>-0.00158163077473283</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000330501748513379</v>
+        <v>0.0643235283762562</v>
       </c>
       <c r="F4" t="n">
         <v>0.000330501748513379</v>
@@ -1845,7 +1845,7 @@
         <v>-0.00122024079899553</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00032634758135378</v>
+        <v>0.0441996097870145</v>
       </c>
       <c r="F5" t="n">
         <v>0.00032634758135378</v>
@@ -1895,7 +1895,7 @@
         <v>-0.00100751116376116</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000285278513545846</v>
+        <v>0.0392720692444399</v>
       </c>
       <c r="F6" t="n">
         <v>0.000285278513545846</v>
@@ -1945,7 +1945,7 @@
         <v>-0.00147338008426146</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000250154398856172</v>
+        <v>0.0282848803903724</v>
       </c>
       <c r="F7" t="n">
         <v>0.000250154398856172</v>
@@ -1995,7 +1995,7 @@
         <v>-0.00014774682953447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000418814558849419</v>
+        <v>0.0428216918351936</v>
       </c>
       <c r="F8" t="n">
         <v>0.0000418814558849419</v>
@@ -2045,7 +2045,7 @@
         <v>-0.000128850984185042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0000310911619602824</v>
+        <v>0.0334102771167433</v>
       </c>
       <c r="F9" t="n">
         <v>0.0000310911619602824</v>
@@ -2095,7 +2095,7 @@
         <v>-0.000218515953862006</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000302317340922396</v>
+        <v>0.0332500099961126</v>
       </c>
       <c r="F10" t="n">
         <v>0.0000302317340922396</v>
@@ -2259,7 +2259,7 @@
         <v>-0.0623474356189915</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11877764797774</v>
+        <v>0.0974174572586504</v>
       </c>
       <c r="F2" t="n">
         <v>0.11877764797774</v>
@@ -2309,7 +2309,7 @@
         <v>-0.052181465097648</v>
       </c>
       <c r="E3" t="n">
-        <v>0.114365045603456</v>
+        <v>0.0786407085832741</v>
       </c>
       <c r="F3" t="n">
         <v>0.114365045603456</v>
@@ -2359,7 +2359,7 @@
         <v>-0.0771922840395604</v>
       </c>
       <c r="E4" t="n">
-        <v>0.108947381245576</v>
+        <v>0.0634295481700058</v>
       </c>
       <c r="F4" t="n">
         <v>0.108947381245576</v>
@@ -2409,7 +2409,7 @@
         <v>-0.0595544648330673</v>
       </c>
       <c r="E5" t="n">
-        <v>0.107577991717894</v>
+        <v>0.0435853154957802</v>
       </c>
       <c r="F5" t="n">
         <v>0.107577991717894</v>
@@ -2459,7 +2459,7 @@
         <v>-0.0491720881817168</v>
       </c>
       <c r="E6" t="n">
-        <v>0.094039886676098</v>
+        <v>0.0387262588162921</v>
       </c>
       <c r="F6" t="n">
         <v>0.094039886676098</v>
@@ -2509,7 +2509,7 @@
         <v>-0.0719090547424092</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0824614900981011</v>
+        <v>0.0278917719300086</v>
       </c>
       <c r="F7" t="n">
         <v>0.0824614900981011</v>
@@ -2559,7 +2559,7 @@
         <v>-0.00721085819368671</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0138059025767357</v>
+        <v>0.0422265481006196</v>
       </c>
       <c r="F8" t="n">
         <v>0.0138059025767357</v>
@@ -2609,7 +2609,7 @@
         <v>-0.00628863697449793</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0102489644629451</v>
+        <v>0.0329459349517271</v>
       </c>
       <c r="F9" t="n">
         <v>0.0102489644629451</v>
@@ -2659,7 +2659,7 @@
         <v>-0.0106647808370703</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00996566061957993</v>
+        <v>0.0327878952529617</v>
       </c>
       <c r="F10" t="n">
         <v>0.00996566061957993</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.59526051953331</v>
+        <v>1.94504453055912</v>
       </c>
       <c r="B2" t="n">
-        <v>6.47478450600394</v>
+        <v>7.89447493732004</v>
       </c>
       <c r="C2" t="n">
-        <v>38.3172561323125</v>
+        <v>46.7188703999208</v>
       </c>
       <c r="D2" t="n">
-        <v>61.9972746756994</v>
+        <v>75.5910765301317</v>
       </c>
       <c r="E2" t="n">
-        <v>28.0224750330498</v>
+        <v>34.1668092003607</v>
       </c>
       <c r="F2" t="n">
-        <v>21.2398717728267</v>
+        <v>25.8970217814951</v>
       </c>
       <c r="G2" t="n">
-        <v>18.3025173444064</v>
+        <v>22.3156097830437</v>
       </c>
       <c r="H2" t="n">
-        <v>16.6520186511869</v>
+        <v>20.3032153078889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.14196806747532</v>
+        <v>3.11500595723348</v>
       </c>
       <c r="B3" t="n">
-        <v>7.77230546320065</v>
+        <v>11.3030526397366</v>
       </c>
       <c r="C3" t="n">
-        <v>43.3182564506204</v>
+        <v>62.996563277293</v>
       </c>
       <c r="D3" t="n">
-        <v>68.1419909081535</v>
+        <v>99.0970457682107</v>
       </c>
       <c r="E3" t="n">
-        <v>30.3495759760148</v>
+        <v>44.1365636585922</v>
       </c>
       <c r="F3" t="n">
-        <v>22.8099453508863</v>
+        <v>33.1718837134343</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5523471168649</v>
+        <v>28.4344471198017</v>
       </c>
       <c r="H3" t="n">
-        <v>17.726861437904</v>
+        <v>25.7796929004683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.62687165024462</v>
+        <v>4.51194743489797</v>
       </c>
       <c r="B4" t="n">
-        <v>8.72870507060603</v>
+        <v>14.9925324481058</v>
       </c>
       <c r="C4" t="n">
-        <v>46.674506518403</v>
+        <v>80.1687132072959</v>
       </c>
       <c r="D4" t="n">
-        <v>71.9859895377678</v>
+        <v>123.64403141405</v>
       </c>
       <c r="E4" t="n">
-        <v>31.7304854172678</v>
+        <v>54.5006766025956</v>
       </c>
       <c r="F4" t="n">
-        <v>23.7078612027821</v>
+        <v>40.7209174193374</v>
       </c>
       <c r="G4" t="n">
-        <v>20.2493760012613</v>
+        <v>34.7805802002802</v>
       </c>
       <c r="H4" t="n">
-        <v>18.3162473672365</v>
+        <v>31.4602144028863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.4454089380539</v>
+        <v>3.56758208580562</v>
       </c>
       <c r="B5" t="n">
-        <v>4.82421742269432</v>
+        <v>11.9072126940133</v>
       </c>
       <c r="C5" t="n">
-        <v>29.8224705787531</v>
+        <v>73.608311800309</v>
       </c>
       <c r="D5" t="n">
-        <v>49.0693600271401</v>
+        <v>121.113800521029</v>
       </c>
       <c r="E5" t="n">
-        <v>22.2679323395252</v>
+        <v>54.9620764137406</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8835075546073</v>
+        <v>41.6721507053077</v>
       </c>
       <c r="G5" t="n">
-        <v>14.5392792325305</v>
+        <v>35.8860878502242</v>
       </c>
       <c r="H5" t="n">
-        <v>13.2176471719289</v>
+        <v>32.6240138867292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.06721672676325</v>
+        <v>5.01987108132341</v>
       </c>
       <c r="B6" t="n">
-        <v>6.47743163802489</v>
+        <v>15.7292998552127</v>
       </c>
       <c r="C6" t="n">
-        <v>37.3268673307915</v>
+        <v>90.6417113621272</v>
       </c>
       <c r="D6" t="n">
-        <v>59.5715659080073</v>
+        <v>144.659037003335</v>
       </c>
       <c r="E6" t="n">
-        <v>26.6472992951579</v>
+        <v>64.7082646900683</v>
       </c>
       <c r="F6" t="n">
-        <v>20.0550316266456</v>
+        <v>48.7001057964807</v>
       </c>
       <c r="G6" t="n">
-        <v>17.199689677856</v>
+        <v>41.7664116702429</v>
       </c>
       <c r="H6" t="n">
-        <v>15.5975792977595</v>
+        <v>37.875969288458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.70843837286793</v>
+        <v>8.00744623274627</v>
       </c>
       <c r="B7" t="n">
-        <v>7.98372971129576</v>
+        <v>23.6037441502817</v>
       </c>
       <c r="C7" t="n">
-        <v>44.0288188283758</v>
+        <v>130.170360526323</v>
       </c>
       <c r="D7" t="n">
-        <v>68.9697992437755</v>
+        <v>203.907891964713</v>
       </c>
       <c r="E7" t="n">
-        <v>30.5905586443166</v>
+        <v>90.4404013869663</v>
       </c>
       <c r="F7" t="n">
-        <v>22.9259718301763</v>
+        <v>67.7801971064247</v>
       </c>
       <c r="G7" t="n">
-        <v>19.6162480724347</v>
+        <v>57.9950621368237</v>
       </c>
       <c r="H7" t="n">
-        <v>17.7637366551885</v>
+        <v>52.5181475731596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.47252514676412</v>
+        <v>0.808388154613417</v>
       </c>
       <c r="B8" t="n">
-        <v>18.1795127743206</v>
+        <v>5.94376271668555</v>
       </c>
       <c r="C8" t="n">
-        <v>97.6843589354573</v>
+        <v>31.9377454088892</v>
       </c>
       <c r="D8" t="n">
-        <v>151.689032498845</v>
+        <v>49.5944873269814</v>
       </c>
       <c r="E8" t="n">
-        <v>67.8698462118683</v>
+        <v>22.1899380092909</v>
       </c>
       <c r="F8" t="n">
-        <v>51.4005293252066</v>
+        <v>16.8053211113895</v>
       </c>
       <c r="G8" t="n">
-        <v>44.3646418406679</v>
+        <v>14.504948916131</v>
       </c>
       <c r="H8" t="n">
-        <v>40.4455237860829</v>
+        <v>13.2235995167105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.95064100365203</v>
+        <v>1.54006689412736</v>
       </c>
       <c r="B9" t="n">
-        <v>27.3849932701428</v>
+        <v>8.5190425846139</v>
       </c>
       <c r="C9" t="n">
-        <v>141.426657252853</v>
+        <v>43.9956184707278</v>
       </c>
       <c r="D9" t="n">
-        <v>214.649869813316</v>
+        <v>66.7742132956871</v>
       </c>
       <c r="E9" t="n">
-        <v>94.5514120739008</v>
+        <v>29.4134637152218</v>
       </c>
       <c r="F9" t="n">
-        <v>70.8100486713812</v>
+        <v>22.0278973268097</v>
       </c>
       <c r="G9" t="n">
-        <v>60.6168704821977</v>
+        <v>18.8569592071759</v>
       </c>
       <c r="H9" t="n">
-        <v>54.923412061971</v>
+        <v>17.0858134465332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.32396862939901</v>
+        <v>1.92212780488762</v>
       </c>
       <c r="B10" t="n">
-        <v>29.4530160534548</v>
+        <v>8.95204647773958</v>
       </c>
       <c r="C10" t="n">
-        <v>146.481566453337</v>
+        <v>44.522088625574</v>
       </c>
       <c r="D10" t="n">
-        <v>217.143756340387</v>
+        <v>65.9993868058238</v>
       </c>
       <c r="E10" t="n">
-        <v>94.1518189487561</v>
+        <v>28.6168132208695</v>
       </c>
       <c r="F10" t="n">
-        <v>69.7711601736514</v>
+        <v>21.2064756813615</v>
       </c>
       <c r="G10" t="n">
-        <v>59.3065572316184</v>
+        <v>18.0258298779522</v>
       </c>
       <c r="H10" t="n">
-        <v>53.477976428582</v>
+        <v>16.2542718767836</v>
       </c>
     </row>
     <row r="11">
